--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Npnt-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Npnt-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Npnt</t>
+  </si>
+  <si>
+    <t>Itgb1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Npnt</t>
-  </si>
-  <si>
-    <t>Itgb1</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.001026</v>
+        <v>0.5534816666666665</v>
       </c>
       <c r="H2">
-        <v>3.003078</v>
+        <v>1.660445</v>
       </c>
       <c r="I2">
-        <v>0.2868023079966677</v>
+        <v>0.1265660928991592</v>
       </c>
       <c r="J2">
-        <v>0.2868023079966677</v>
+        <v>0.1265660928991593</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>94.89711564712599</v>
+        <v>97.88605403054886</v>
       </c>
       <c r="R2">
-        <v>854.0740408241339</v>
+        <v>880.9744862749399</v>
       </c>
       <c r="S2">
-        <v>0.04823910343546745</v>
+        <v>0.03378948520783994</v>
       </c>
       <c r="T2">
-        <v>0.04823910343546745</v>
+        <v>0.03378948520783995</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.001026</v>
+        <v>0.5534816666666665</v>
       </c>
       <c r="H3">
-        <v>3.003078</v>
+        <v>1.660445</v>
       </c>
       <c r="I3">
-        <v>0.2868023079966677</v>
+        <v>0.1265660928991592</v>
       </c>
       <c r="J3">
-        <v>0.2868023079966677</v>
+        <v>0.1265660928991593</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>145.7907907047627</v>
+        <v>80.60982414435108</v>
       </c>
       <c r="R3">
-        <v>1312.117116342864</v>
+        <v>725.4884172991599</v>
       </c>
       <c r="S3">
-        <v>0.07410991350777292</v>
+        <v>0.02782586842945044</v>
       </c>
       <c r="T3">
-        <v>0.07410991350777293</v>
+        <v>0.02782586842945044</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.001026</v>
+        <v>0.5534816666666665</v>
       </c>
       <c r="H4">
-        <v>3.003078</v>
+        <v>1.660445</v>
       </c>
       <c r="I4">
-        <v>0.2868023079966677</v>
+        <v>0.1265660928991592</v>
       </c>
       <c r="J4">
-        <v>0.2868023079966677</v>
+        <v>0.1265660928991593</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>72.85063881257066</v>
+        <v>46.50635976958888</v>
       </c>
       <c r="R4">
-        <v>655.655749313136</v>
+        <v>418.5572379262999</v>
       </c>
       <c r="S4">
-        <v>0.03703220563717847</v>
+        <v>0.01605362450318598</v>
       </c>
       <c r="T4">
-        <v>0.03703220563717847</v>
+        <v>0.01605362450318598</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.001026</v>
+        <v>0.5534816666666665</v>
       </c>
       <c r="H5">
-        <v>3.003078</v>
+        <v>1.660445</v>
       </c>
       <c r="I5">
-        <v>0.2868023079966677</v>
+        <v>0.1265660928991592</v>
       </c>
       <c r="J5">
-        <v>0.2868023079966677</v>
+        <v>0.1265660928991593</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>115.9547392915167</v>
+        <v>47.00652030394611</v>
       </c>
       <c r="R5">
-        <v>1043.59265362365</v>
+        <v>423.058682735515</v>
       </c>
       <c r="S5">
-        <v>0.05894333694309219</v>
+        <v>0.01622627593085446</v>
       </c>
       <c r="T5">
-        <v>0.0589433369430922</v>
+        <v>0.01622627593085447</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.001026</v>
+        <v>0.5534816666666665</v>
       </c>
       <c r="H6">
-        <v>3.003078</v>
+        <v>1.660445</v>
       </c>
       <c r="I6">
-        <v>0.2868023079966677</v>
+        <v>0.1265660928991592</v>
       </c>
       <c r="J6">
-        <v>0.2868023079966677</v>
+        <v>0.1265660928991593</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>58.24658574503599</v>
+        <v>35.40678879739944</v>
       </c>
       <c r="R6">
-        <v>524.219271705324</v>
+        <v>318.661099176595</v>
       </c>
       <c r="S6">
-        <v>0.02960851924062363</v>
+        <v>0.01222214112291694</v>
       </c>
       <c r="T6">
-        <v>0.02960851924062363</v>
+        <v>0.01222214112291694</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.001026</v>
+        <v>0.5534816666666665</v>
       </c>
       <c r="H7">
-        <v>3.003078</v>
+        <v>1.660445</v>
       </c>
       <c r="I7">
-        <v>0.2868023079966677</v>
+        <v>0.1265660928991592</v>
       </c>
       <c r="J7">
-        <v>0.2868023079966677</v>
+        <v>0.1265660928991593</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>76.46447547535334</v>
+        <v>59.23861568429277</v>
       </c>
       <c r="R7">
-        <v>688.18027927818</v>
+        <v>533.1475411586349</v>
       </c>
       <c r="S7">
-        <v>0.03886922923253299</v>
+        <v>0.02044869770491148</v>
       </c>
       <c r="T7">
-        <v>0.038869229232533</v>
+        <v>0.02044869770491148</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>0.423458</v>
       </c>
       <c r="I8">
-        <v>0.04044141768533915</v>
+        <v>0.03227774757182092</v>
       </c>
       <c r="J8">
-        <v>0.04044141768533915</v>
+        <v>0.03227774757182092</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>13.38125176825267</v>
+        <v>24.96356860219289</v>
       </c>
       <c r="R8">
-        <v>120.431265914274</v>
+        <v>224.672117419736</v>
       </c>
       <c r="S8">
-        <v>0.006802099133814099</v>
+        <v>0.008617224796450041</v>
       </c>
       <c r="T8">
-        <v>0.0068020991338141</v>
+        <v>0.008617224796450041</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.423458</v>
       </c>
       <c r="I9">
-        <v>0.04044141768533915</v>
+        <v>0.03227774757182092</v>
       </c>
       <c r="J9">
-        <v>0.04044141768533915</v>
+        <v>0.03227774757182092</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
         <v>20.55766671736711</v>
@@ -1013,10 +1013,10 @@
         <v>185.019000456304</v>
       </c>
       <c r="S9">
-        <v>0.01045009012558932</v>
+        <v>0.007096342602975845</v>
       </c>
       <c r="T9">
-        <v>0.01045009012558932</v>
+        <v>0.007096342602975845</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1045,10 +1045,10 @@
         <v>0.423458</v>
       </c>
       <c r="I10">
-        <v>0.04044141768533915</v>
+        <v>0.03227774757182092</v>
       </c>
       <c r="J10">
-        <v>0.04044141768533915</v>
+        <v>0.03227774757182092</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>10.27252232885511</v>
+        <v>11.86036881396889</v>
       </c>
       <c r="R10">
-        <v>92.452700959696</v>
+        <v>106.74331932572</v>
       </c>
       <c r="S10">
-        <v>0.005221836973501295</v>
+        <v>0.004094104727871221</v>
       </c>
       <c r="T10">
-        <v>0.005221836973501295</v>
+        <v>0.004094104727871221</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1107,10 +1107,10 @@
         <v>0.423458</v>
       </c>
       <c r="I11">
-        <v>0.04044141768533915</v>
+        <v>0.03227774757182092</v>
       </c>
       <c r="J11">
-        <v>0.04044141768533915</v>
+        <v>0.03227774757182092</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>16.35054500446111</v>
+        <v>11.98792316208511</v>
       </c>
       <c r="R11">
-        <v>147.15490504015</v>
+        <v>107.891308458766</v>
       </c>
       <c r="S11">
-        <v>0.008311481611615795</v>
+        <v>0.004138135471592116</v>
       </c>
       <c r="T11">
-        <v>0.008311481611615795</v>
+        <v>0.004138135471592116</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -1169,10 +1169,10 @@
         <v>0.423458</v>
       </c>
       <c r="I12">
-        <v>0.04044141768533915</v>
+        <v>0.03227774757182092</v>
       </c>
       <c r="J12">
-        <v>0.04044141768533915</v>
+        <v>0.03227774757182092</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>8.213234123929332</v>
+        <v>9.029680579946445</v>
       </c>
       <c r="R12">
-        <v>73.919107115364</v>
+        <v>81.26712521951801</v>
       </c>
       <c r="S12">
-        <v>0.004175037858023002</v>
+        <v>0.003116973724289672</v>
       </c>
       <c r="T12">
-        <v>0.004175037858023003</v>
+        <v>0.003116973724289672</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1231,10 +1231,10 @@
         <v>0.423458</v>
       </c>
       <c r="I13">
-        <v>0.04044141768533915</v>
+        <v>0.03227774757182092</v>
       </c>
       <c r="J13">
-        <v>0.04044141768533915</v>
+        <v>0.03227774757182092</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>10.78210218177556</v>
+        <v>15.10743548894378</v>
       </c>
       <c r="R13">
-        <v>97.03891963598001</v>
+        <v>135.966919400494</v>
       </c>
       <c r="S13">
-        <v>0.005480871982795637</v>
+        <v>0.005214966248642025</v>
       </c>
       <c r="T13">
-        <v>0.005480871982795638</v>
+        <v>0.005214966248642025</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.04646766666666666</v>
+        <v>3.67843</v>
       </c>
       <c r="H14">
-        <v>0.139403</v>
+        <v>11.03529</v>
       </c>
       <c r="I14">
-        <v>0.01331337452495721</v>
+        <v>0.8411561595290198</v>
       </c>
       <c r="J14">
-        <v>0.01331337452495722</v>
+        <v>0.8411561595290199</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>4.405127876317666</v>
+        <v>650.5490956838534</v>
       </c>
       <c r="R14">
-        <v>39.646150886859</v>
+        <v>5854.94186115468</v>
       </c>
       <c r="S14">
-        <v>0.002239261096852785</v>
+        <v>0.2245643596862432</v>
       </c>
       <c r="T14">
-        <v>0.002239261096852786</v>
+        <v>0.2245643596862432</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.04646766666666666</v>
+        <v>3.67843</v>
       </c>
       <c r="H15">
-        <v>0.139403</v>
+        <v>11.03529</v>
       </c>
       <c r="I15">
-        <v>0.01331337452495721</v>
+        <v>0.8411561595290198</v>
       </c>
       <c r="J15">
-        <v>0.01331337452495722</v>
+        <v>0.8411561595290199</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
-        <v>6.767614293273777</v>
+        <v>535.7315576739467</v>
       </c>
       <c r="R15">
-        <v>60.908528639464</v>
+        <v>4821.58401906552</v>
       </c>
       <c r="S15">
-        <v>0.003440185127633737</v>
+        <v>0.1849302612376985</v>
       </c>
       <c r="T15">
-        <v>0.003440185127633738</v>
+        <v>0.1849302612376985</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.04646766666666666</v>
+        <v>3.67843</v>
       </c>
       <c r="H16">
-        <v>0.139403</v>
+        <v>11.03529</v>
       </c>
       <c r="I16">
-        <v>0.01331337452495721</v>
+        <v>0.8411561595290198</v>
       </c>
       <c r="J16">
-        <v>0.01331337452495722</v>
+        <v>0.8411561595290199</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>3.381729546281778</v>
+        <v>309.0804976387333</v>
       </c>
       <c r="R16">
-        <v>30.435565916536</v>
+        <v>2781.7244787486</v>
       </c>
       <c r="S16">
-        <v>0.001719036456075929</v>
+        <v>0.1066921228608977</v>
       </c>
       <c r="T16">
-        <v>0.001719036456075929</v>
+        <v>0.1066921228608977</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.04646766666666666</v>
+        <v>3.67843</v>
       </c>
       <c r="H17">
-        <v>0.139403</v>
+        <v>11.03529</v>
       </c>
       <c r="I17">
-        <v>0.01331337452495721</v>
+        <v>0.8411561595290198</v>
       </c>
       <c r="J17">
-        <v>0.01331337452495722</v>
+        <v>0.8411561595290199</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>5.382623602002778</v>
+        <v>312.4045562755367</v>
       </c>
       <c r="R17">
-        <v>48.443612418025</v>
+        <v>2811.64100647983</v>
       </c>
       <c r="S17">
-        <v>0.002736152041298255</v>
+        <v>0.107839561392879</v>
       </c>
       <c r="T17">
-        <v>0.002736152041298256</v>
+        <v>0.107839561392879</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.04646766666666666</v>
+        <v>3.67843</v>
       </c>
       <c r="H18">
-        <v>0.139403</v>
+        <v>11.03529</v>
       </c>
       <c r="I18">
-        <v>0.01331337452495721</v>
+        <v>0.8411561595290198</v>
       </c>
       <c r="J18">
-        <v>0.01331337452495722</v>
+        <v>0.8411561595290199</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>2.703808823019333</v>
+        <v>235.3129325861767</v>
       </c>
       <c r="R18">
-        <v>24.334279407174</v>
+        <v>2117.81639327559</v>
       </c>
       <c r="S18">
-        <v>0.001374428638783493</v>
+        <v>0.08122814770276289</v>
       </c>
       <c r="T18">
-        <v>0.001374428638783494</v>
+        <v>0.0812281477027629</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.04646766666666666</v>
+        <v>3.67843</v>
       </c>
       <c r="H19">
-        <v>0.139403</v>
+        <v>11.03529</v>
       </c>
       <c r="I19">
-        <v>0.01331337452495721</v>
+        <v>0.8411561595290198</v>
       </c>
       <c r="J19">
-        <v>0.01331337452495722</v>
+        <v>0.8411561595290199</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>3.549483987658889</v>
+        <v>393.6988598084967</v>
       </c>
       <c r="R19">
-        <v>31.94535588893</v>
+        <v>3543.28973827647</v>
       </c>
       <c r="S19">
-        <v>0.001804311164313014</v>
+        <v>0.1359017066485386</v>
       </c>
       <c r="T19">
-        <v>0.001804311164313014</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>2.301653333333334</v>
-      </c>
-      <c r="H20">
-        <v>6.904960000000001</v>
-      </c>
-      <c r="I20">
-        <v>0.6594428997930359</v>
-      </c>
-      <c r="J20">
-        <v>0.6594428997930359</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>94.79985099999999</v>
-      </c>
-      <c r="N20">
-        <v>284.399553</v>
-      </c>
-      <c r="O20">
-        <v>0.1681963571786456</v>
-      </c>
-      <c r="P20">
-        <v>0.1681963571786456</v>
-      </c>
-      <c r="Q20">
-        <v>218.1963930536533</v>
-      </c>
-      <c r="R20">
-        <v>1963.76753748288</v>
-      </c>
-      <c r="S20">
-        <v>0.1109158935125113</v>
-      </c>
-      <c r="T20">
-        <v>0.1109158935125113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2.301653333333334</v>
-      </c>
-      <c r="H21">
-        <v>6.904960000000001</v>
-      </c>
-      <c r="I21">
-        <v>0.6594428997930359</v>
-      </c>
-      <c r="J21">
-        <v>0.6594428997930359</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>145.6413626666667</v>
-      </c>
-      <c r="N21">
-        <v>436.924088</v>
-      </c>
-      <c r="O21">
-        <v>0.2584006873076977</v>
-      </c>
-      <c r="P21">
-        <v>0.2584006873076977</v>
-      </c>
-      <c r="Q21">
-        <v>335.2159278529422</v>
-      </c>
-      <c r="R21">
-        <v>3016.94335067648</v>
-      </c>
-      <c r="S21">
-        <v>0.1704004985467017</v>
-      </c>
-      <c r="T21">
-        <v>0.1704004985467017</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>2.301653333333334</v>
-      </c>
-      <c r="H22">
-        <v>6.904960000000001</v>
-      </c>
-      <c r="I22">
-        <v>0.6594428997930359</v>
-      </c>
-      <c r="J22">
-        <v>0.6594428997930359</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>72.77597066666667</v>
-      </c>
-      <c r="N22">
-        <v>218.327912</v>
-      </c>
-      <c r="O22">
-        <v>0.1291210168281098</v>
-      </c>
-      <c r="P22">
-        <v>0.1291210168281098</v>
-      </c>
-      <c r="Q22">
-        <v>167.5050554715023</v>
-      </c>
-      <c r="R22">
-        <v>1507.54549924352</v>
-      </c>
-      <c r="S22">
-        <v>0.08514793776135414</v>
-      </c>
-      <c r="T22">
-        <v>0.08514793776135414</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>2.301653333333334</v>
-      </c>
-      <c r="H23">
-        <v>6.904960000000001</v>
-      </c>
-      <c r="I23">
-        <v>0.6594428997930359</v>
-      </c>
-      <c r="J23">
-        <v>0.6594428997930359</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>115.8358916666667</v>
-      </c>
-      <c r="N23">
-        <v>347.507675</v>
-      </c>
-      <c r="O23">
-        <v>0.2055190467427377</v>
-      </c>
-      <c r="P23">
-        <v>0.2055190467427377</v>
-      </c>
-      <c r="Q23">
-        <v>266.6140661742223</v>
-      </c>
-      <c r="R23">
-        <v>2399.526595568</v>
-      </c>
-      <c r="S23">
-        <v>0.1355280761467314</v>
-      </c>
-      <c r="T23">
-        <v>0.1355280761467315</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>2.301653333333334</v>
-      </c>
-      <c r="H24">
-        <v>6.904960000000001</v>
-      </c>
-      <c r="I24">
-        <v>0.6594428997930359</v>
-      </c>
-      <c r="J24">
-        <v>0.6594428997930359</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>58.18688599999999</v>
-      </c>
-      <c r="N24">
-        <v>174.560658</v>
-      </c>
-      <c r="O24">
-        <v>0.10323668399826</v>
-      </c>
-      <c r="P24">
-        <v>0.10323668399826</v>
-      </c>
-      <c r="Q24">
-        <v>133.9260401181867</v>
-      </c>
-      <c r="R24">
-        <v>1205.33436106368</v>
-      </c>
-      <c r="S24">
-        <v>0.06807869826082991</v>
-      </c>
-      <c r="T24">
-        <v>0.06807869826082991</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>2.301653333333334</v>
-      </c>
-      <c r="H25">
-        <v>6.904960000000001</v>
-      </c>
-      <c r="I25">
-        <v>0.6594428997930359</v>
-      </c>
-      <c r="J25">
-        <v>0.6594428997930359</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>76.38610333333334</v>
-      </c>
-      <c r="N25">
-        <v>229.15831</v>
-      </c>
-      <c r="O25">
-        <v>0.1355262079445491</v>
-      </c>
-      <c r="P25">
-        <v>0.1355262079445491</v>
-      </c>
-      <c r="Q25">
-        <v>175.8143293575112</v>
-      </c>
-      <c r="R25">
-        <v>1582.3289642176</v>
-      </c>
-      <c r="S25">
-        <v>0.08937179556490742</v>
-      </c>
-      <c r="T25">
-        <v>0.08937179556490743</v>
+        <v>0.1359017066485386</v>
       </c>
     </row>
   </sheetData>
